--- a/Gantt diagram.xlsx
+++ b/Gantt diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gere Dániel\hardverapro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Csák Zoltán Barnabás\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109907EE-2CB8-4A79-A00E-3996A4BA32FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90250471-2DFC-40F3-94E9-F2721AD781EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
   </bookViews>
@@ -52,24 +52,6 @@
     <t>Január</t>
   </si>
   <si>
-    <t>DOKUMENTÁCIÓ (5%)</t>
-  </si>
-  <si>
-    <t>HTML (5%)</t>
-  </si>
-  <si>
-    <t>CSS (5%)</t>
-  </si>
-  <si>
-    <t>JS (5%)</t>
-  </si>
-  <si>
-    <t>LOGIN (10%)</t>
-  </si>
-  <si>
-    <t>REGISTER (10%)</t>
-  </si>
-  <si>
     <t>Bolívia</t>
   </si>
   <si>
@@ -80,6 +62,24 @@
   </si>
   <si>
     <t>Kész</t>
+  </si>
+  <si>
+    <t>frontend (35%)</t>
+  </si>
+  <si>
+    <t>Félbeszakítva</t>
+  </si>
+  <si>
+    <t>DOKUMENTÁCIÓ (25%)</t>
+  </si>
+  <si>
+    <t>JS (0%)</t>
+  </si>
+  <si>
+    <t>LOGIN (5%)</t>
+  </si>
+  <si>
+    <t>REGISTER (5%)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -176,6 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -490,10 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5196D089-F0E6-4B15-8808-B43E476C25FC}">
-  <dimension ref="A1:EX16"/>
+  <dimension ref="A1:EX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +509,7 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1298,7 +1306,7 @@
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1337,10 +1345,24 @@
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1379,10 +1401,24 @@
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1402,10 +1438,10 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -1421,10 +1457,24 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1463,10 +1513,24 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1476,20 +1540,20 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -1505,75 +1569,53 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s">
-        <v>12</v>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5"/>
-      <c r="C15" t="s">
-        <v>13</v>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" t="s">
-        <v>14</v>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="CO2:DS2"/>
     <mergeCell ref="CO1:DS1"/>
     <mergeCell ref="DT2:EX2"/>

--- a/Gantt diagram.xlsx
+++ b/Gantt diagram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Csák Zoltán Barnabás\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90250471-2DFC-40F3-94E9-F2721AD781EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1540A87-9223-4F1D-B0AC-A67A81C705E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Szeptember</t>
   </si>
@@ -64,22 +64,46 @@
     <t>Kész</t>
   </si>
   <si>
-    <t>frontend (35%)</t>
-  </si>
-  <si>
     <t>Félbeszakítva</t>
   </si>
   <si>
-    <t>DOKUMENTÁCIÓ (25%)</t>
-  </si>
-  <si>
     <t>JS (0%)</t>
   </si>
   <si>
-    <t>LOGIN (5%)</t>
-  </si>
-  <si>
-    <t>REGISTER (5%)</t>
+    <t>Navbar (kész)</t>
+  </si>
+  <si>
+    <t>Bejelentkezés/regisztráció (5%)</t>
+  </si>
+  <si>
+    <t>Tailwind-ben újraírás</t>
+  </si>
+  <si>
+    <t>Jegyzetek</t>
+  </si>
+  <si>
+    <t>1. értékelés (26/30)</t>
+  </si>
+  <si>
+    <t>2. értékelés</t>
+  </si>
+  <si>
+    <t>Projekt elkezdése</t>
+  </si>
+  <si>
+    <t>Kódolás elkezdése</t>
+  </si>
+  <si>
+    <t>Fejléc (kész)</t>
+  </si>
+  <si>
+    <t>DOKUMENTÁCIÓ (40%)</t>
+  </si>
+  <si>
+    <t>frontend (40%)</t>
+  </si>
+  <si>
+    <t>Kártyák</t>
   </si>
 </sst>
 </file>
@@ -118,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -176,13 +206,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -497,351 +531,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5196D089-F0E6-4B15-8808-B43E476C25FC}">
-  <dimension ref="A1:EX17"/>
+  <dimension ref="A1:EX19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB28" sqref="BB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B1" s="8">
+      <c r="B1" s="11">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11">
         <v>2</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8">
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11">
         <v>3</v>
       </c>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="8"/>
-      <c r="CO1" s="8">
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11">
         <v>4</v>
       </c>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8"/>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="8"/>
-      <c r="CW1" s="8"/>
-      <c r="CX1" s="8"/>
-      <c r="CY1" s="8"/>
-      <c r="CZ1" s="8"/>
-      <c r="DA1" s="8"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="8"/>
-      <c r="DD1" s="8"/>
-      <c r="DE1" s="8"/>
-      <c r="DF1" s="8"/>
-      <c r="DG1" s="8"/>
-      <c r="DH1" s="8"/>
-      <c r="DI1" s="8"/>
-      <c r="DJ1" s="8"/>
-      <c r="DK1" s="8"/>
-      <c r="DL1" s="8"/>
-      <c r="DM1" s="8"/>
-      <c r="DN1" s="8"/>
-      <c r="DO1" s="8"/>
-      <c r="DP1" s="8"/>
-      <c r="DQ1" s="8"/>
-      <c r="DR1" s="8"/>
-      <c r="DS1" s="8"/>
-      <c r="DT1" s="8">
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11">
         <v>5</v>
       </c>
-      <c r="DU1" s="8"/>
-      <c r="DV1" s="8"/>
-      <c r="DW1" s="8"/>
-      <c r="DX1" s="8"/>
-      <c r="DY1" s="8"/>
-      <c r="DZ1" s="8"/>
-      <c r="EA1" s="8"/>
-      <c r="EB1" s="8"/>
-      <c r="EC1" s="8"/>
-      <c r="ED1" s="8"/>
-      <c r="EE1" s="8"/>
-      <c r="EF1" s="8"/>
-      <c r="EG1" s="8"/>
-      <c r="EH1" s="8"/>
-      <c r="EI1" s="8"/>
-      <c r="EJ1" s="8"/>
-      <c r="EK1" s="8"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="8"/>
-      <c r="EN1" s="8"/>
-      <c r="EO1" s="8"/>
-      <c r="EP1" s="8"/>
-      <c r="EQ1" s="8"/>
-      <c r="ER1" s="8"/>
-      <c r="ES1" s="8"/>
-      <c r="ET1" s="8"/>
-      <c r="EU1" s="8"/>
-      <c r="EV1" s="8"/>
-      <c r="EW1" s="8"/>
-      <c r="EX1" s="8"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11"/>
+      <c r="EW1" s="11"/>
+      <c r="EX1" s="11"/>
     </row>
     <row r="2" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8" t="s">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8" t="s">
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="11"/>
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11"/>
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+      <c r="CO2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8"/>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
-      <c r="DA2" s="8"/>
-      <c r="DB2" s="8"/>
-      <c r="DC2" s="8"/>
-      <c r="DD2" s="8"/>
-      <c r="DE2" s="8"/>
-      <c r="DF2" s="8"/>
-      <c r="DG2" s="8"/>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="8"/>
-      <c r="DJ2" s="8"/>
-      <c r="DK2" s="8"/>
-      <c r="DL2" s="8"/>
-      <c r="DM2" s="8"/>
-      <c r="DN2" s="8"/>
-      <c r="DO2" s="8"/>
-      <c r="DP2" s="8"/>
-      <c r="DQ2" s="8"/>
-      <c r="DR2" s="8"/>
-      <c r="DS2" s="8"/>
-      <c r="DT2" s="8" t="s">
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11"/>
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11"/>
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="DU2" s="8"/>
-      <c r="DV2" s="8"/>
-      <c r="DW2" s="8"/>
-      <c r="DX2" s="8"/>
-      <c r="DY2" s="8"/>
-      <c r="DZ2" s="8"/>
-      <c r="EA2" s="8"/>
-      <c r="EB2" s="8"/>
-      <c r="EC2" s="8"/>
-      <c r="ED2" s="8"/>
-      <c r="EE2" s="8"/>
-      <c r="EF2" s="8"/>
-      <c r="EG2" s="8"/>
-      <c r="EH2" s="8"/>
-      <c r="EI2" s="8"/>
-      <c r="EJ2" s="8"/>
-      <c r="EK2" s="8"/>
-      <c r="EL2" s="8"/>
-      <c r="EM2" s="8"/>
-      <c r="EN2" s="8"/>
-      <c r="EO2" s="8"/>
-      <c r="EP2" s="8"/>
-      <c r="EQ2" s="8"/>
-      <c r="ER2" s="8"/>
-      <c r="ES2" s="8"/>
-      <c r="ET2" s="8"/>
-      <c r="EU2" s="8"/>
-      <c r="EV2" s="8"/>
-      <c r="EW2" s="8"/>
-      <c r="EX2" s="8"/>
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11"/>
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+      <c r="EA2" s="11"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11"/>
+      <c r="EE2" s="11"/>
+      <c r="EF2" s="11"/>
+      <c r="EG2" s="11"/>
+      <c r="EH2" s="11"/>
+      <c r="EI2" s="11"/>
+      <c r="EJ2" s="11"/>
+      <c r="EK2" s="11"/>
+      <c r="EL2" s="11"/>
+      <c r="EM2" s="11"/>
+      <c r="EN2" s="11"/>
+      <c r="EO2" s="11"/>
+      <c r="EP2" s="11"/>
+      <c r="EQ2" s="11"/>
+      <c r="ER2" s="11"/>
+      <c r="ES2" s="11"/>
+      <c r="ET2" s="11"/>
+      <c r="EU2" s="11"/>
+      <c r="EV2" s="11"/>
+      <c r="EW2" s="11"/>
+      <c r="EX2" s="11"/>
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -1306,7 +1342,7 @@
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1359,10 +1395,13 @@
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
       <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1403,22 +1442,25 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1459,22 +1501,25 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1498,39 +1543,42 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="5"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1540,30 +1588,30 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
@@ -1571,51 +1619,195 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
     </row>
-    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" t="s">
-        <v>6</v>
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+    </row>
+    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+    </row>
+    <row r="11" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC11" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5"/>
       <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" t="s">
-        <v>10</v>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="CO2:DS2"/>
     <mergeCell ref="CO1:DS1"/>
     <mergeCell ref="DT2:EX2"/>

--- a/Gantt diagram.xlsx
+++ b/Gantt diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Csák Zoltán Barnabás\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1540A87-9223-4F1D-B0AC-A67A81C705E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1FA56D-97D1-4F93-B0D0-715C502843E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Szeptember</t>
   </si>
@@ -67,15 +66,9 @@
     <t>Félbeszakítva</t>
   </si>
   <si>
-    <t>JS (0%)</t>
-  </si>
-  <si>
     <t>Navbar (kész)</t>
   </si>
   <si>
-    <t>Bejelentkezés/regisztráció (5%)</t>
-  </si>
-  <si>
     <t>Tailwind-ben újraírás</t>
   </si>
   <si>
@@ -85,9 +78,6 @@
     <t>1. értékelés (26/30)</t>
   </si>
   <si>
-    <t>2. értékelés</t>
-  </si>
-  <si>
     <t>Projekt elkezdése</t>
   </si>
   <si>
@@ -97,20 +87,35 @@
     <t>Fejléc (kész)</t>
   </si>
   <si>
-    <t>DOKUMENTÁCIÓ (40%)</t>
-  </si>
-  <si>
-    <t>frontend (40%)</t>
-  </si>
-  <si>
     <t>Kártyák</t>
+  </si>
+  <si>
+    <t>Őszi szünet</t>
+  </si>
+  <si>
+    <t>2. értékelés(27,5/30)</t>
+  </si>
+  <si>
+    <t>DOKUMENTÁCIÓ</t>
+  </si>
+  <si>
+    <t>Bejelentkezés/regisztráció</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>3. értékelés (24.25/30)</t>
+  </si>
+  <si>
+    <t>Téli szünet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +146,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="44"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="44"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -194,14 +221,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -211,11 +340,63 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="105"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5196D089-F0E6-4B15-8808-B43E476C25FC}">
-  <dimension ref="A1:EX19"/>
+  <dimension ref="A1:EX18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB28" sqref="BB28"/>
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DQ15" sqref="DQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,1264 +731,1584 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B1" s="11">
+      <c r="B1" s="19">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19">
         <v>2</v>
       </c>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19">
         <v>3</v>
       </c>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="11"/>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11">
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19"/>
+      <c r="BV1" s="19"/>
+      <c r="BW1" s="19"/>
+      <c r="BX1" s="19"/>
+      <c r="BY1" s="19"/>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19"/>
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19"/>
+      <c r="CF1" s="19"/>
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="19"/>
+      <c r="CJ1" s="19"/>
+      <c r="CK1" s="19"/>
+      <c r="CL1" s="19"/>
+      <c r="CM1" s="19"/>
+      <c r="CN1" s="19"/>
+      <c r="CO1" s="19">
         <v>4</v>
       </c>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="11"/>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="11">
+      <c r="CP1" s="19"/>
+      <c r="CQ1" s="19"/>
+      <c r="CR1" s="19"/>
+      <c r="CS1" s="19"/>
+      <c r="CT1" s="19"/>
+      <c r="CU1" s="19"/>
+      <c r="CV1" s="19"/>
+      <c r="CW1" s="19"/>
+      <c r="CX1" s="19"/>
+      <c r="CY1" s="19"/>
+      <c r="CZ1" s="19"/>
+      <c r="DA1" s="19"/>
+      <c r="DB1" s="19"/>
+      <c r="DC1" s="19"/>
+      <c r="DD1" s="19"/>
+      <c r="DE1" s="19"/>
+      <c r="DF1" s="19"/>
+      <c r="DG1" s="19"/>
+      <c r="DH1" s="19"/>
+      <c r="DI1" s="19"/>
+      <c r="DJ1" s="19"/>
+      <c r="DK1" s="19"/>
+      <c r="DL1" s="19"/>
+      <c r="DM1" s="19"/>
+      <c r="DN1" s="19"/>
+      <c r="DO1" s="19"/>
+      <c r="DP1" s="19"/>
+      <c r="DQ1" s="19"/>
+      <c r="DR1" s="19"/>
+      <c r="DS1" s="19"/>
+      <c r="DT1" s="19">
         <v>5</v>
       </c>
-      <c r="DU1" s="11"/>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="11"/>
-      <c r="EM1" s="11"/>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
+      <c r="DU1" s="19"/>
+      <c r="DV1" s="19"/>
+      <c r="DW1" s="19"/>
+      <c r="DX1" s="19"/>
+      <c r="DY1" s="19"/>
+      <c r="DZ1" s="19"/>
+      <c r="EA1" s="19"/>
+      <c r="EB1" s="19"/>
+      <c r="EC1" s="19"/>
+      <c r="ED1" s="19"/>
+      <c r="EE1" s="19"/>
+      <c r="EF1" s="19"/>
+      <c r="EG1" s="19"/>
+      <c r="EH1" s="19"/>
+      <c r="EI1" s="19"/>
+      <c r="EJ1" s="19"/>
+      <c r="EK1" s="19"/>
+      <c r="EL1" s="19"/>
+      <c r="EM1" s="19"/>
+      <c r="EN1" s="19"/>
+      <c r="EO1" s="19"/>
+      <c r="EP1" s="19"/>
+      <c r="EQ1" s="19"/>
+      <c r="ER1" s="19"/>
+      <c r="ES1" s="19"/>
+      <c r="ET1" s="19"/>
+      <c r="EU1" s="19"/>
+      <c r="EV1" s="19"/>
+      <c r="EW1" s="19"/>
+      <c r="EX1" s="19"/>
     </row>
     <row r="2" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11" t="s">
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
-      <c r="CO2" s="11" t="s">
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="19"/>
+      <c r="BU2" s="19"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
+      <c r="CB2" s="19"/>
+      <c r="CC2" s="19"/>
+      <c r="CD2" s="19"/>
+      <c r="CE2" s="19"/>
+      <c r="CF2" s="19"/>
+      <c r="CG2" s="19"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="19"/>
+      <c r="CJ2" s="19"/>
+      <c r="CK2" s="19"/>
+      <c r="CL2" s="19"/>
+      <c r="CM2" s="19"/>
+      <c r="CN2" s="19"/>
+      <c r="CO2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="11"/>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11"/>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11"/>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="11"/>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="11"/>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11" t="s">
+      <c r="CP2" s="19"/>
+      <c r="CQ2" s="19"/>
+      <c r="CR2" s="19"/>
+      <c r="CS2" s="19"/>
+      <c r="CT2" s="19"/>
+      <c r="CU2" s="19"/>
+      <c r="CV2" s="19"/>
+      <c r="CW2" s="19"/>
+      <c r="CX2" s="19"/>
+      <c r="CY2" s="19"/>
+      <c r="CZ2" s="19"/>
+      <c r="DA2" s="19"/>
+      <c r="DB2" s="19"/>
+      <c r="DC2" s="19"/>
+      <c r="DD2" s="19"/>
+      <c r="DE2" s="19"/>
+      <c r="DF2" s="19"/>
+      <c r="DG2" s="19"/>
+      <c r="DH2" s="19"/>
+      <c r="DI2" s="19"/>
+      <c r="DJ2" s="19"/>
+      <c r="DK2" s="19"/>
+      <c r="DL2" s="19"/>
+      <c r="DM2" s="19"/>
+      <c r="DN2" s="19"/>
+      <c r="DO2" s="19"/>
+      <c r="DP2" s="19"/>
+      <c r="DQ2" s="19"/>
+      <c r="DR2" s="19"/>
+      <c r="DS2" s="19"/>
+      <c r="DT2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11"/>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
-      <c r="EA2" s="11"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="11"/>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11"/>
-      <c r="EG2" s="11"/>
-      <c r="EH2" s="11"/>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="11"/>
-      <c r="EK2" s="11"/>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="11"/>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="11"/>
-      <c r="EP2" s="11"/>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="11"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="11"/>
-      <c r="EW2" s="11"/>
-      <c r="EX2" s="11"/>
+      <c r="DU2" s="19"/>
+      <c r="DV2" s="19"/>
+      <c r="DW2" s="19"/>
+      <c r="DX2" s="19"/>
+      <c r="DY2" s="19"/>
+      <c r="DZ2" s="19"/>
+      <c r="EA2" s="19"/>
+      <c r="EB2" s="19"/>
+      <c r="EC2" s="19"/>
+      <c r="ED2" s="19"/>
+      <c r="EE2" s="19"/>
+      <c r="EF2" s="19"/>
+      <c r="EG2" s="19"/>
+      <c r="EH2" s="19"/>
+      <c r="EI2" s="19"/>
+      <c r="EJ2" s="19"/>
+      <c r="EK2" s="19"/>
+      <c r="EL2" s="19"/>
+      <c r="EM2" s="19"/>
+      <c r="EN2" s="19"/>
+      <c r="EO2" s="19"/>
+      <c r="EP2" s="19"/>
+      <c r="EQ2" s="19"/>
+      <c r="ER2" s="19"/>
+      <c r="ES2" s="19"/>
+      <c r="ET2" s="19"/>
+      <c r="EU2" s="19"/>
+      <c r="EV2" s="19"/>
+      <c r="EW2" s="19"/>
+      <c r="EX2" s="19"/>
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>8</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>10</v>
       </c>
       <c r="L3">
         <v>11</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>12</v>
       </c>
       <c r="N3">
         <v>13</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <v>14</v>
       </c>
       <c r="P3">
         <v>15</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="1">
         <v>16</v>
       </c>
       <c r="R3">
         <v>17</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="1">
         <v>18</v>
       </c>
       <c r="T3">
         <v>19</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="1">
         <v>20</v>
       </c>
       <c r="V3">
         <v>21</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="1">
         <v>22</v>
       </c>
       <c r="X3">
         <v>23</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="1">
         <v>24</v>
       </c>
       <c r="Z3">
         <v>25</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="1">
         <v>26</v>
       </c>
       <c r="AB3">
         <v>27</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="1">
         <v>28</v>
       </c>
       <c r="AD3">
         <v>29</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="1">
         <v>30</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="1">
         <v>2</v>
       </c>
       <c r="AH3">
         <v>3</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="1">
         <v>4</v>
       </c>
       <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="1">
         <v>6</v>
       </c>
       <c r="AL3">
         <v>7</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="1">
         <v>8</v>
       </c>
       <c r="AN3">
         <v>9</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="1">
         <v>10</v>
       </c>
       <c r="AP3">
         <v>11</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="1">
         <v>12</v>
       </c>
       <c r="AR3">
         <v>13</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="1">
         <v>14</v>
       </c>
       <c r="AT3">
         <v>15</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AU3" s="1">
         <v>16</v>
       </c>
       <c r="AV3">
         <v>17</v>
       </c>
-      <c r="AW3" s="3">
+      <c r="AW3" s="1">
         <v>18</v>
       </c>
       <c r="AX3">
         <v>19</v>
       </c>
-      <c r="AY3" s="3">
+      <c r="AY3" s="1">
         <v>20</v>
       </c>
       <c r="AZ3">
         <v>21</v>
       </c>
-      <c r="BA3" s="3">
+      <c r="BA3" s="1">
         <v>22</v>
       </c>
       <c r="BB3">
         <v>23</v>
       </c>
-      <c r="BC3" s="3">
+      <c r="BC3" s="1">
         <v>24</v>
       </c>
       <c r="BD3">
         <v>25</v>
       </c>
-      <c r="BE3" s="3">
+      <c r="BE3" s="1">
         <v>26</v>
       </c>
       <c r="BF3">
         <v>27</v>
       </c>
-      <c r="BG3" s="3">
+      <c r="BG3" s="1">
         <v>28</v>
       </c>
       <c r="BH3">
         <v>29</v>
       </c>
-      <c r="BI3" s="3">
+      <c r="BI3" s="1">
         <v>30</v>
       </c>
       <c r="BJ3">
         <v>31</v>
       </c>
-      <c r="BK3" s="3">
+      <c r="BK3" s="1">
         <v>1</v>
       </c>
       <c r="BL3">
         <v>2</v>
       </c>
-      <c r="BM3" s="3">
+      <c r="BM3" s="1">
         <v>3</v>
       </c>
       <c r="BN3">
         <v>4</v>
       </c>
-      <c r="BO3" s="3">
+      <c r="BO3" s="1">
         <v>5</v>
       </c>
       <c r="BP3">
         <v>6</v>
       </c>
-      <c r="BQ3" s="3">
+      <c r="BQ3" s="1">
         <v>7</v>
       </c>
       <c r="BR3">
         <v>8</v>
       </c>
-      <c r="BS3" s="3">
+      <c r="BS3" s="1">
         <v>9</v>
       </c>
       <c r="BT3">
         <v>10</v>
       </c>
-      <c r="BU3" s="3">
+      <c r="BU3" s="1">
         <v>11</v>
       </c>
       <c r="BV3">
         <v>12</v>
       </c>
-      <c r="BW3" s="3">
+      <c r="BW3" s="1">
         <v>13</v>
       </c>
       <c r="BX3">
         <v>14</v>
       </c>
-      <c r="BY3" s="3">
+      <c r="BY3" s="1">
         <v>15</v>
       </c>
       <c r="BZ3">
         <v>16</v>
       </c>
-      <c r="CA3" s="3">
+      <c r="CA3" s="1">
         <v>17</v>
       </c>
       <c r="CB3">
         <v>18</v>
       </c>
-      <c r="CC3" s="3">
+      <c r="CC3" s="1">
         <v>19</v>
       </c>
       <c r="CD3">
         <v>20</v>
       </c>
-      <c r="CE3" s="3">
+      <c r="CE3" s="1">
         <v>21</v>
       </c>
       <c r="CF3">
         <v>22</v>
       </c>
-      <c r="CG3" s="3">
+      <c r="CG3" s="1">
         <v>23</v>
       </c>
       <c r="CH3">
         <v>24</v>
       </c>
-      <c r="CI3" s="3">
+      <c r="CI3" s="1">
         <v>25</v>
       </c>
       <c r="CJ3">
         <v>26</v>
       </c>
-      <c r="CK3" s="3">
+      <c r="CK3" s="1">
         <v>27</v>
       </c>
       <c r="CL3">
         <v>28</v>
       </c>
-      <c r="CM3" s="3">
+      <c r="CM3" s="1">
         <v>29</v>
       </c>
       <c r="CN3">
         <v>30</v>
       </c>
-      <c r="CO3" s="3">
+      <c r="CO3" s="1">
         <v>1</v>
       </c>
       <c r="CP3">
         <v>2</v>
       </c>
-      <c r="CQ3" s="3">
+      <c r="CQ3" s="1">
         <v>3</v>
       </c>
       <c r="CR3">
         <v>4</v>
       </c>
-      <c r="CS3" s="3">
+      <c r="CS3" s="1">
         <v>5</v>
       </c>
       <c r="CT3">
         <v>6</v>
       </c>
-      <c r="CU3" s="3">
+      <c r="CU3" s="1">
         <v>7</v>
       </c>
       <c r="CV3">
         <v>8</v>
       </c>
-      <c r="CW3" s="3">
+      <c r="CW3" s="1">
         <v>9</v>
       </c>
       <c r="CX3">
         <v>10</v>
       </c>
-      <c r="CY3" s="3">
+      <c r="CY3" s="1">
         <v>11</v>
       </c>
       <c r="CZ3">
         <v>12</v>
       </c>
-      <c r="DA3" s="3">
+      <c r="DA3" s="1">
         <v>13</v>
       </c>
       <c r="DB3">
         <v>14</v>
       </c>
-      <c r="DC3" s="3">
+      <c r="DC3" s="1">
         <v>15</v>
       </c>
       <c r="DD3">
         <v>16</v>
       </c>
-      <c r="DE3" s="3">
+      <c r="DE3" s="1">
         <v>17</v>
       </c>
       <c r="DF3">
         <v>18</v>
       </c>
-      <c r="DG3" s="3">
+      <c r="DG3" s="1">
         <v>19</v>
       </c>
       <c r="DH3">
         <v>20</v>
       </c>
-      <c r="DI3" s="3">
+      <c r="DI3" s="1">
         <v>21</v>
       </c>
       <c r="DJ3">
         <v>22</v>
       </c>
-      <c r="DK3" s="3">
+      <c r="DK3" s="1">
         <v>23</v>
       </c>
       <c r="DL3">
         <v>24</v>
       </c>
-      <c r="DM3" s="3">
+      <c r="DM3" s="1">
         <v>25</v>
       </c>
       <c r="DN3">
         <v>26</v>
       </c>
-      <c r="DO3" s="3">
+      <c r="DO3" s="1">
         <v>27</v>
       </c>
       <c r="DP3">
         <v>28</v>
       </c>
-      <c r="DQ3" s="3">
+      <c r="DQ3" s="1">
         <v>29</v>
       </c>
       <c r="DR3">
         <v>30</v>
       </c>
-      <c r="DS3" s="3">
+      <c r="DS3" s="1">
         <v>31</v>
       </c>
       <c r="DT3">
         <v>1</v>
       </c>
-      <c r="DU3" s="3">
+      <c r="DU3" s="1">
         <v>2</v>
       </c>
       <c r="DV3">
         <v>3</v>
       </c>
-      <c r="DW3" s="3">
+      <c r="DW3" s="1">
         <v>4</v>
       </c>
       <c r="DX3">
         <v>5</v>
       </c>
-      <c r="DY3" s="3">
+      <c r="DY3" s="1">
         <v>6</v>
       </c>
       <c r="DZ3">
         <v>7</v>
       </c>
-      <c r="EA3" s="3">
+      <c r="EA3" s="1">
         <v>8</v>
       </c>
       <c r="EB3">
         <v>9</v>
       </c>
-      <c r="EC3" s="3">
+      <c r="EC3" s="1">
         <v>10</v>
       </c>
       <c r="ED3">
         <v>11</v>
       </c>
-      <c r="EE3" s="3">
+      <c r="EE3" s="1">
         <v>12</v>
       </c>
       <c r="EF3">
         <v>13</v>
       </c>
-      <c r="EG3" s="3">
+      <c r="EG3" s="1">
         <v>14</v>
       </c>
       <c r="EH3">
         <v>15</v>
       </c>
-      <c r="EI3" s="3">
+      <c r="EI3" s="1">
         <v>16</v>
       </c>
       <c r="EJ3">
         <v>17</v>
       </c>
-      <c r="EK3" s="3">
+      <c r="EK3" s="1">
         <v>18</v>
       </c>
       <c r="EL3">
         <v>19</v>
       </c>
-      <c r="EM3" s="3">
+      <c r="EM3" s="1">
         <v>20</v>
       </c>
       <c r="EN3">
         <v>21</v>
       </c>
-      <c r="EO3" s="3">
+      <c r="EO3" s="1">
         <v>22</v>
       </c>
       <c r="EP3">
         <v>23</v>
       </c>
-      <c r="EQ3" s="3">
+      <c r="EQ3" s="1">
         <v>24</v>
       </c>
       <c r="ER3">
         <v>25</v>
       </c>
-      <c r="ES3" s="3">
+      <c r="ES3" s="1">
         <v>26</v>
       </c>
       <c r="ET3">
         <v>27</v>
       </c>
-      <c r="EU3" s="3">
+      <c r="EU3" s="1">
         <v>28</v>
       </c>
       <c r="EV3">
         <v>29</v>
       </c>
-      <c r="EW3" s="3">
+      <c r="EW3" s="1">
         <v>30</v>
       </c>
       <c r="EX3">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
+    <row r="4" spans="1:154" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="21"/>
+      <c r="BM4" s="22"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
+      <c r="CS4" s="10"/>
+      <c r="CT4" s="10"/>
+      <c r="CU4" s="10"/>
+      <c r="CV4" s="10"/>
+      <c r="CW4" s="10"/>
+      <c r="DI4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="DJ4" s="29"/>
+      <c r="DK4" s="29"/>
+      <c r="DL4" s="29"/>
+      <c r="DM4" s="29"/>
+      <c r="DN4" s="29"/>
+      <c r="DO4" s="29"/>
+      <c r="DP4" s="29"/>
+      <c r="DQ4" s="29"/>
+      <c r="DR4" s="29"/>
+      <c r="DS4" s="29"/>
+      <c r="DT4" s="29"/>
+      <c r="DU4" s="29"/>
+      <c r="DV4" s="29"/>
+      <c r="DW4" s="29"/>
+      <c r="DX4" s="29"/>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
+      <c r="A5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+      <c r="BJ5" s="24"/>
+      <c r="BK5" s="24"/>
+      <c r="BL5" s="24"/>
+      <c r="BM5" s="25"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="11"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11"/>
+      <c r="BT5" s="11"/>
+      <c r="BU5" s="11"/>
+      <c r="BV5" s="11"/>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="11"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
+      <c r="CS5" s="10"/>
+      <c r="CT5" s="10"/>
+      <c r="CU5" s="10"/>
+      <c r="CV5" s="10"/>
+      <c r="CW5" s="10"/>
+      <c r="DI5" s="30"/>
+      <c r="DJ5" s="31"/>
+      <c r="DK5" s="31"/>
+      <c r="DL5" s="31"/>
+      <c r="DM5" s="31"/>
+      <c r="DN5" s="31"/>
+      <c r="DO5" s="31"/>
+      <c r="DP5" s="31"/>
+      <c r="DQ5" s="31"/>
+      <c r="DR5" s="31"/>
+      <c r="DS5" s="31"/>
+      <c r="DT5" s="31"/>
+      <c r="DU5" s="31"/>
+      <c r="DV5" s="31"/>
+      <c r="DW5" s="31"/>
+      <c r="DX5" s="31"/>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="10"/>
+      <c r="DI6" s="30"/>
+      <c r="DJ6" s="31"/>
+      <c r="DK6" s="31"/>
+      <c r="DL6" s="31"/>
+      <c r="DM6" s="31"/>
+      <c r="DN6" s="31"/>
+      <c r="DO6" s="31"/>
+      <c r="DP6" s="31"/>
+      <c r="DQ6" s="31"/>
+      <c r="DR6" s="31"/>
+      <c r="DS6" s="31"/>
+      <c r="DT6" s="31"/>
+      <c r="DU6" s="31"/>
+      <c r="DV6" s="31"/>
+      <c r="DW6" s="31"/>
+      <c r="DX6" s="31"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="5"/>
+      <c r="A7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="24"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="12"/>
+      <c r="BZ7" s="12"/>
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="12"/>
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="12"/>
+      <c r="CG7" s="12"/>
+      <c r="CH7" s="12"/>
+      <c r="CI7" s="12"/>
+      <c r="CJ7" s="12"/>
+      <c r="CK7" s="12"/>
+      <c r="CL7" s="12"/>
+      <c r="CM7" s="12"/>
+      <c r="CN7" s="12"/>
+      <c r="CO7" s="12"/>
+      <c r="CP7" s="12"/>
+      <c r="CQ7" s="12"/>
+      <c r="CR7" s="12"/>
+      <c r="CS7" s="12"/>
+      <c r="CT7" s="12"/>
+      <c r="CU7" s="12"/>
+      <c r="CV7" s="12"/>
+      <c r="CW7" s="12"/>
+      <c r="DI7" s="30"/>
+      <c r="DJ7" s="31"/>
+      <c r="DK7" s="31"/>
+      <c r="DL7" s="31"/>
+      <c r="DM7" s="31"/>
+      <c r="DN7" s="31"/>
+      <c r="DO7" s="31"/>
+      <c r="DP7" s="31"/>
+      <c r="DQ7" s="31"/>
+      <c r="DR7" s="31"/>
+      <c r="DS7" s="31"/>
+      <c r="DT7" s="31"/>
+      <c r="DU7" s="31"/>
+      <c r="DV7" s="31"/>
+      <c r="DW7" s="31"/>
+      <c r="DX7" s="31"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="24"/>
+      <c r="BG8" s="24"/>
+      <c r="BH8" s="24"/>
+      <c r="BI8" s="24"/>
+      <c r="BJ8" s="24"/>
+      <c r="BK8" s="24"/>
+      <c r="BL8" s="24"/>
+      <c r="BM8" s="25"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="10"/>
+      <c r="BV8" s="10"/>
+      <c r="BW8" s="10"/>
+      <c r="BX8" s="10"/>
+      <c r="BY8" s="10"/>
+      <c r="BZ8" s="10"/>
+      <c r="CA8" s="10"/>
+      <c r="CB8" s="10"/>
+      <c r="CC8" s="10"/>
+      <c r="CD8" s="10"/>
+      <c r="CE8" s="10"/>
+      <c r="CF8" s="10"/>
+      <c r="CG8" s="10"/>
+      <c r="CH8" s="10"/>
+      <c r="CI8" s="10"/>
+      <c r="CJ8" s="10"/>
+      <c r="CK8" s="10"/>
+      <c r="CL8" s="10"/>
+      <c r="CM8" s="10"/>
+      <c r="CN8" s="10"/>
+      <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
+      <c r="CQ8" s="10"/>
+      <c r="CR8" s="10"/>
+      <c r="CS8" s="10"/>
+      <c r="CT8" s="10"/>
+      <c r="CU8" s="10"/>
+      <c r="CV8" s="10"/>
+      <c r="CW8" s="10"/>
+      <c r="DI8" s="30"/>
+      <c r="DJ8" s="31"/>
+      <c r="DK8" s="31"/>
+      <c r="DL8" s="31"/>
+      <c r="DM8" s="31"/>
+      <c r="DN8" s="31"/>
+      <c r="DO8" s="31"/>
+      <c r="DP8" s="31"/>
+      <c r="DQ8" s="31"/>
+      <c r="DR8" s="31"/>
+      <c r="DS8" s="31"/>
+      <c r="DT8" s="31"/>
+      <c r="DU8" s="31"/>
+      <c r="DV8" s="31"/>
+      <c r="DW8" s="31"/>
+      <c r="DX8" s="31"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="12"/>
+      <c r="BT9" s="12"/>
+      <c r="BU9" s="12"/>
+      <c r="BV9" s="12"/>
+      <c r="BW9" s="12"/>
+      <c r="BX9" s="12"/>
+      <c r="BY9" s="12"/>
+      <c r="BZ9" s="12"/>
+      <c r="CA9" s="12"/>
+      <c r="CB9" s="12"/>
+      <c r="CC9" s="12"/>
+      <c r="CD9" s="12"/>
+      <c r="CE9" s="12"/>
+      <c r="CF9" s="12"/>
+      <c r="CG9" s="12"/>
+      <c r="CH9" s="12"/>
+      <c r="CI9" s="12"/>
+      <c r="CJ9" s="12"/>
+      <c r="CK9" s="12"/>
+      <c r="CL9" s="12"/>
+      <c r="CM9" s="12"/>
+      <c r="CN9" s="12"/>
+      <c r="CO9" s="12"/>
+      <c r="CP9" s="12"/>
+      <c r="CQ9" s="12"/>
+      <c r="CR9" s="12"/>
+      <c r="CS9" s="12"/>
+      <c r="CT9" s="12"/>
+      <c r="CU9" s="12"/>
+      <c r="CV9" s="12"/>
+      <c r="CW9" s="12"/>
+      <c r="DI9" s="32"/>
+      <c r="DJ9" s="33"/>
+      <c r="DK9" s="33"/>
+      <c r="DL9" s="33"/>
+      <c r="DM9" s="33"/>
+      <c r="DN9" s="33"/>
+      <c r="DO9" s="33"/>
+      <c r="DP9" s="33"/>
+      <c r="DQ9" s="33"/>
+      <c r="DR9" s="33"/>
+      <c r="DS9" s="33"/>
+      <c r="DT9" s="33"/>
+      <c r="DU9" s="33"/>
+      <c r="DV9" s="33"/>
+      <c r="DW9" s="33"/>
+      <c r="DX9" s="33"/>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
+      <c r="BC10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL10" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC11" s="9" t="s">
-        <v>16</v>
+    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
-      <c r="D16" t="s">
-        <v>8</v>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B14:B16"/>
+  <mergeCells count="13">
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="CO2:DS2"/>
     <mergeCell ref="CO1:DS1"/>
     <mergeCell ref="DT2:EX2"/>
@@ -1818,6 +2319,8 @@
     <mergeCell ref="AF1:BJ1"/>
     <mergeCell ref="BK2:CN2"/>
     <mergeCell ref="BK1:CN1"/>
+    <mergeCell ref="BD4:BM9"/>
+    <mergeCell ref="DI4:DX9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt diagram.xlsx
+++ b/Gantt diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Csák Zoltán Barnabás\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hardverapro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1FA56D-97D1-4F93-B0D0-715C502843E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9D795-39A6-47B0-8849-A1E05E6AEA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="105"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="105"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="105"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="105"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,22 +715,22 @@
   <dimension ref="A1:EX18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DQ15" sqref="DQ15"/>
+      <pane xSplit="1" topLeftCell="DM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DY11" sqref="DY11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.3">
       <c r="B1" s="19">
         <v>1</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="EW1" s="19"/>
       <c r="EX1" s="19"/>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="EW2" s="19"/>
       <c r="EX2" s="19"/>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:154" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:154" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
@@ -1627,6 +1627,17 @@
       <c r="CU4" s="10"/>
       <c r="CV4" s="10"/>
       <c r="CW4" s="10"/>
+      <c r="CX4" s="10"/>
+      <c r="CY4" s="10"/>
+      <c r="CZ4" s="10"/>
+      <c r="DA4" s="10"/>
+      <c r="DB4" s="10"/>
+      <c r="DC4" s="10"/>
+      <c r="DD4" s="10"/>
+      <c r="DE4" s="10"/>
+      <c r="DF4" s="10"/>
+      <c r="DG4" s="10"/>
+      <c r="DH4" s="10"/>
       <c r="DI4" s="20" t="s">
         <v>24</v>
       </c>
@@ -1645,8 +1656,9 @@
       <c r="DV4" s="29"/>
       <c r="DW4" s="29"/>
       <c r="DX4" s="29"/>
+      <c r="DY4" s="10"/>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1750,6 +1762,17 @@
       <c r="CU5" s="10"/>
       <c r="CV5" s="10"/>
       <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="10"/>
+      <c r="DA5" s="10"/>
+      <c r="DB5" s="10"/>
+      <c r="DC5" s="10"/>
+      <c r="DD5" s="10"/>
+      <c r="DE5" s="10"/>
+      <c r="DF5" s="10"/>
+      <c r="DG5" s="10"/>
+      <c r="DH5" s="10"/>
       <c r="DI5" s="30"/>
       <c r="DJ5" s="31"/>
       <c r="DK5" s="31"/>
@@ -1766,8 +1789,9 @@
       <c r="DV5" s="31"/>
       <c r="DW5" s="31"/>
       <c r="DX5" s="31"/>
+      <c r="DY5" s="10"/>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1871,6 +1895,17 @@
       <c r="CU6" s="10"/>
       <c r="CV6" s="10"/>
       <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
+      <c r="DD6" s="10"/>
+      <c r="DE6" s="10"/>
+      <c r="DF6" s="10"/>
+      <c r="DG6" s="10"/>
+      <c r="DH6" s="10"/>
       <c r="DI6" s="30"/>
       <c r="DJ6" s="31"/>
       <c r="DK6" s="31"/>
@@ -1887,8 +1922,9 @@
       <c r="DV6" s="31"/>
       <c r="DW6" s="31"/>
       <c r="DX6" s="31"/>
+      <c r="DY6" s="10"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -1992,6 +2028,17 @@
       <c r="CU7" s="12"/>
       <c r="CV7" s="12"/>
       <c r="CW7" s="12"/>
+      <c r="CX7" s="12"/>
+      <c r="CY7" s="12"/>
+      <c r="CZ7" s="12"/>
+      <c r="DA7" s="12"/>
+      <c r="DB7" s="12"/>
+      <c r="DC7" s="12"/>
+      <c r="DD7" s="12"/>
+      <c r="DE7" s="12"/>
+      <c r="DF7" s="12"/>
+      <c r="DG7" s="12"/>
+      <c r="DH7" s="12"/>
       <c r="DI7" s="30"/>
       <c r="DJ7" s="31"/>
       <c r="DK7" s="31"/>
@@ -2008,8 +2055,9 @@
       <c r="DV7" s="31"/>
       <c r="DW7" s="31"/>
       <c r="DX7" s="31"/>
+      <c r="DY7" s="12"/>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
@@ -2113,6 +2161,17 @@
       <c r="CU8" s="10"/>
       <c r="CV8" s="10"/>
       <c r="CW8" s="10"/>
+      <c r="CX8" s="10"/>
+      <c r="CY8" s="10"/>
+      <c r="CZ8" s="10"/>
+      <c r="DA8" s="10"/>
+      <c r="DB8" s="10"/>
+      <c r="DC8" s="10"/>
+      <c r="DD8" s="10"/>
+      <c r="DE8" s="10"/>
+      <c r="DF8" s="10"/>
+      <c r="DG8" s="10"/>
+      <c r="DH8" s="10"/>
       <c r="DI8" s="30"/>
       <c r="DJ8" s="31"/>
       <c r="DK8" s="31"/>
@@ -2129,8 +2188,9 @@
       <c r="DV8" s="31"/>
       <c r="DW8" s="31"/>
       <c r="DX8" s="31"/>
+      <c r="DY8" s="10"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
@@ -2234,6 +2294,17 @@
       <c r="CU9" s="12"/>
       <c r="CV9" s="12"/>
       <c r="CW9" s="12"/>
+      <c r="CX9" s="12"/>
+      <c r="CY9" s="12"/>
+      <c r="CZ9" s="12"/>
+      <c r="DA9" s="12"/>
+      <c r="DB9" s="12"/>
+      <c r="DC9" s="12"/>
+      <c r="DD9" s="12"/>
+      <c r="DE9" s="12"/>
+      <c r="DF9" s="12"/>
+      <c r="DG9" s="12"/>
+      <c r="DH9" s="12"/>
       <c r="DI9" s="32"/>
       <c r="DJ9" s="33"/>
       <c r="DK9" s="33"/>
@@ -2250,8 +2321,9 @@
       <c r="DV9" s="33"/>
       <c r="DW9" s="33"/>
       <c r="DX9" s="33"/>
+      <c r="DY9" s="12"/>
     </row>
-    <row r="10" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2271,7 +2343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:154" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
@@ -2280,27 +2352,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:154" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>12</v>

--- a/Gantt diagram.xlsx
+++ b/Gantt diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hardverapro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9D795-39A6-47B0-8849-A1E05E6AEA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4B9F0-2243-40E7-AA34-83ECBD8F49B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,22 +715,22 @@
   <dimension ref="A1:EX18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DY11" sqref="DY11"/>
+      <pane xSplit="1" topLeftCell="DR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EL7" sqref="EL7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B1" s="19">
         <v>1</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="EW1" s="19"/>
       <c r="EX1" s="19"/>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="EW2" s="19"/>
       <c r="EX2" s="19"/>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:154" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:154" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
@@ -1657,8 +1657,22 @@
       <c r="DW4" s="29"/>
       <c r="DX4" s="29"/>
       <c r="DY4" s="10"/>
+      <c r="DZ4" s="10"/>
+      <c r="EA4" s="10"/>
+      <c r="EB4" s="10"/>
+      <c r="EC4" s="10"/>
+      <c r="ED4" s="10"/>
+      <c r="EE4" s="10"/>
+      <c r="EF4" s="10"/>
+      <c r="EG4" s="10"/>
+      <c r="EH4" s="10"/>
+      <c r="EI4" s="10"/>
+      <c r="EJ4" s="10"/>
+      <c r="EK4" s="10"/>
+      <c r="EL4" s="10"/>
+      <c r="EM4" s="10"/>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1790,8 +1804,22 @@
       <c r="DW5" s="31"/>
       <c r="DX5" s="31"/>
       <c r="DY5" s="10"/>
+      <c r="DZ5" s="10"/>
+      <c r="EA5" s="10"/>
+      <c r="EB5" s="10"/>
+      <c r="EC5" s="10"/>
+      <c r="ED5" s="10"/>
+      <c r="EE5" s="10"/>
+      <c r="EF5" s="10"/>
+      <c r="EG5" s="10"/>
+      <c r="EH5" s="10"/>
+      <c r="EI5" s="10"/>
+      <c r="EJ5" s="10"/>
+      <c r="EK5" s="10"/>
+      <c r="EL5" s="10"/>
+      <c r="EM5" s="10"/>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1923,8 +1951,22 @@
       <c r="DW6" s="31"/>
       <c r="DX6" s="31"/>
       <c r="DY6" s="10"/>
+      <c r="DZ6" s="10"/>
+      <c r="EA6" s="10"/>
+      <c r="EB6" s="10"/>
+      <c r="EC6" s="10"/>
+      <c r="ED6" s="10"/>
+      <c r="EE6" s="10"/>
+      <c r="EF6" s="10"/>
+      <c r="EG6" s="10"/>
+      <c r="EH6" s="10"/>
+      <c r="EI6" s="10"/>
+      <c r="EJ6" s="10"/>
+      <c r="EK6" s="10"/>
+      <c r="EL6" s="10"/>
+      <c r="EM6" s="10"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -2056,8 +2098,22 @@
       <c r="DW7" s="31"/>
       <c r="DX7" s="31"/>
       <c r="DY7" s="12"/>
+      <c r="DZ7" s="12"/>
+      <c r="EA7" s="12"/>
+      <c r="EB7" s="12"/>
+      <c r="EC7" s="12"/>
+      <c r="ED7" s="12"/>
+      <c r="EE7" s="12"/>
+      <c r="EF7" s="12"/>
+      <c r="EG7" s="12"/>
+      <c r="EH7" s="12"/>
+      <c r="EI7" s="12"/>
+      <c r="EJ7" s="12"/>
+      <c r="EK7" s="12"/>
+      <c r="EL7" s="12"/>
+      <c r="EM7" s="12"/>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
@@ -2189,8 +2245,22 @@
       <c r="DW8" s="31"/>
       <c r="DX8" s="31"/>
       <c r="DY8" s="10"/>
+      <c r="DZ8" s="10"/>
+      <c r="EA8" s="10"/>
+      <c r="EB8" s="10"/>
+      <c r="EC8" s="10"/>
+      <c r="ED8" s="10"/>
+      <c r="EE8" s="10"/>
+      <c r="EF8" s="10"/>
+      <c r="EG8" s="10"/>
+      <c r="EH8" s="10"/>
+      <c r="EI8" s="10"/>
+      <c r="EJ8" s="10"/>
+      <c r="EK8" s="10"/>
+      <c r="EL8" s="10"/>
+      <c r="EM8" s="10"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
@@ -2322,8 +2392,22 @@
       <c r="DW9" s="33"/>
       <c r="DX9" s="33"/>
       <c r="DY9" s="12"/>
+      <c r="DZ9" s="12"/>
+      <c r="EA9" s="12"/>
+      <c r="EB9" s="12"/>
+      <c r="EC9" s="12"/>
+      <c r="ED9" s="12"/>
+      <c r="EE9" s="12"/>
+      <c r="EF9" s="12"/>
+      <c r="EG9" s="12"/>
+      <c r="EH9" s="12"/>
+      <c r="EI9" s="12"/>
+      <c r="EJ9" s="12"/>
+      <c r="EK9" s="12"/>
+      <c r="EL9" s="12"/>
+      <c r="EM9" s="12"/>
     </row>
-    <row r="10" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2343,7 +2427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
@@ -2352,27 +2436,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:154" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>12</v>

--- a/Gantt diagram.xlsx
+++ b/Gantt diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hardverapro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\hardverapro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4B9F0-2243-40E7-AA34-83ECBD8F49B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FED4AF-6411-4643-AF31-46D265A929CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,8 +715,8 @@
   <dimension ref="A1:EX18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EL7" sqref="EL7"/>
+      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ET8" sqref="ET8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,6 +1671,15 @@
       <c r="EK4" s="10"/>
       <c r="EL4" s="10"/>
       <c r="EM4" s="10"/>
+      <c r="EN4" s="10"/>
+      <c r="EO4" s="10"/>
+      <c r="EP4" s="10"/>
+      <c r="EQ4" s="10"/>
+      <c r="ER4" s="10"/>
+      <c r="ES4" s="10"/>
+      <c r="ET4" s="10"/>
+      <c r="EU4" s="10"/>
+      <c r="EV4" s="10"/>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -1818,6 +1827,15 @@
       <c r="EK5" s="10"/>
       <c r="EL5" s="10"/>
       <c r="EM5" s="10"/>
+      <c r="EN5" s="10"/>
+      <c r="EO5" s="10"/>
+      <c r="EP5" s="10"/>
+      <c r="EQ5" s="10"/>
+      <c r="ER5" s="10"/>
+      <c r="ES5" s="10"/>
+      <c r="ET5" s="10"/>
+      <c r="EU5" s="10"/>
+      <c r="EV5" s="10"/>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -1965,6 +1983,15 @@
       <c r="EK6" s="10"/>
       <c r="EL6" s="10"/>
       <c r="EM6" s="10"/>
+      <c r="EN6" s="10"/>
+      <c r="EO6" s="10"/>
+      <c r="EP6" s="10"/>
+      <c r="EQ6" s="10"/>
+      <c r="ER6" s="10"/>
+      <c r="ES6" s="10"/>
+      <c r="ET6" s="10"/>
+      <c r="EU6" s="10"/>
+      <c r="EV6" s="10"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -2112,6 +2139,15 @@
       <c r="EK7" s="12"/>
       <c r="EL7" s="12"/>
       <c r="EM7" s="12"/>
+      <c r="EN7" s="12"/>
+      <c r="EO7" s="12"/>
+      <c r="EP7" s="12"/>
+      <c r="EQ7" s="12"/>
+      <c r="ER7" s="12"/>
+      <c r="ES7" s="12"/>
+      <c r="ET7" s="12"/>
+      <c r="EU7" s="12"/>
+      <c r="EV7" s="12"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -2259,6 +2295,15 @@
       <c r="EK8" s="10"/>
       <c r="EL8" s="10"/>
       <c r="EM8" s="10"/>
+      <c r="EN8" s="10"/>
+      <c r="EO8" s="10"/>
+      <c r="EP8" s="10"/>
+      <c r="EQ8" s="10"/>
+      <c r="ER8" s="10"/>
+      <c r="ES8" s="10"/>
+      <c r="ET8" s="10"/>
+      <c r="EU8" s="10"/>
+      <c r="EV8" s="10"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -2406,6 +2451,15 @@
       <c r="EK9" s="12"/>
       <c r="EL9" s="12"/>
       <c r="EM9" s="12"/>
+      <c r="EN9" s="12"/>
+      <c r="EO9" s="12"/>
+      <c r="EP9" s="12"/>
+      <c r="EQ9" s="12"/>
+      <c r="ER9" s="12"/>
+      <c r="ES9" s="12"/>
+      <c r="ET9" s="12"/>
+      <c r="EU9" s="12"/>
+      <c r="EV9" s="12"/>
     </row>
     <row r="10" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="7" t="s">

--- a/Gantt diagram.xlsx
+++ b/Gantt diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\hardverapro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fabó Dudás Róbert\barni cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FED4AF-6411-4643-AF31-46D265A929CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE579B3D-B47A-4729-A128-E3CF6749E1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88963BC7-597A-4A17-B513-190F29871652}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Szeptember</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Téli szünet</t>
+  </si>
+  <si>
+    <t>Végső lezárás</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -398,6 +401,18 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="105"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -416,9 +431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,8 +730,8 @@
   <dimension ref="A1:EX18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ET8" sqref="ET8"/>
+      <pane xSplit="1" topLeftCell="DY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EN14" sqref="EN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,6 +1695,7 @@
       <c r="ET4" s="10"/>
       <c r="EU4" s="10"/>
       <c r="EV4" s="10"/>
+      <c r="EW4" s="34"/>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -1836,6 +1852,7 @@
       <c r="ET5" s="10"/>
       <c r="EU5" s="10"/>
       <c r="EV5" s="10"/>
+      <c r="EW5" s="35"/>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -1992,6 +2009,7 @@
       <c r="ET6" s="10"/>
       <c r="EU6" s="10"/>
       <c r="EV6" s="10"/>
+      <c r="EW6" s="35"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -2148,6 +2166,7 @@
       <c r="ET7" s="12"/>
       <c r="EU7" s="12"/>
       <c r="EV7" s="12"/>
+      <c r="EW7" s="35"/>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -2304,6 +2323,7 @@
       <c r="ET8" s="10"/>
       <c r="EU8" s="10"/>
       <c r="EV8" s="10"/>
+      <c r="EW8" s="35"/>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -2460,6 +2480,7 @@
       <c r="ET9" s="12"/>
       <c r="EU9" s="12"/>
       <c r="EV9" s="12"/>
+      <c r="EW9" s="36"/>
     </row>
     <row r="10" spans="1:154" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="7" t="s">
@@ -2479,6 +2500,9 @@
       </c>
       <c r="CL10" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="EW10" s="37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:154" x14ac:dyDescent="0.25">
@@ -2517,7 +2541,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="CO2:DS2"/>
     <mergeCell ref="CO1:DS1"/>
@@ -2531,6 +2555,7 @@
     <mergeCell ref="BK1:CN1"/>
     <mergeCell ref="BD4:BM9"/>
     <mergeCell ref="DI4:DX9"/>
+    <mergeCell ref="EW4:EW9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
